--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274143.5627293279</v>
+        <v>264133.4848529769</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14856599.608275</v>
+        <v>14856599.60827499</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3419457.999880049</v>
+        <v>3419457.99988005</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15.21588118932758</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.853802665581134</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.36207852374645</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>29.75308270337462</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>29.75308270337462</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>29.75308270337462</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.426231955037859</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.94682028185201</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>17.37305223688987</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>29.75308270337462</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>29.75308270337462</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.75308270337462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.579696329610442</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R5" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.47611504059525</v>
+        <v>23.47611504059537</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>36.33447707511645</v>
       </c>
       <c r="G6" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="I6" t="n">
-        <v>26.58206201150026</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.70815661144294</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.808809210202206</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.48608799914667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>35.52498287800576</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="G8" t="n">
-        <v>47.88733071588069</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>47.88733071588069</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>47.88733071588069</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.654178016541948</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.96917712439721</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4.2099837701517</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>9.27358440251836</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>42.17916089454891</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.90557649202935</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>47.88733071588069</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>47.88733071588069</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>47.88733071588069</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.163201384512135</v>
+        <v>2.163201384512518</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3854158231842</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>96.7875824222974</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>94.23933463279369</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>72.77623149104679</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>191.2211343439804</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.2211343439804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>219.5565574740965</v>
       </c>
       <c r="C14" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380173</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
-        <v>59.22911908072536</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>96.7875824222974</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>92.4583016444024</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>93.09630611656611</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>167.339099642015</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5.398425013876433</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>31.91942736361667</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199.0421087209545</v>
+        <v>91.13088952452711</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,17 +1852,17 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>219.5565574740965</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>219.5565574740965</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>94.23933463279369</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>72.7762314910468</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>191.2211343439804</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>193.3854158231842</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5565574740965</v>
+        <v>199.0421087209548</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>93.09630611656611</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
-        <v>53.73847534064725</v>
+        <v>44.5993740928572</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>33.3214361136614</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.2211343439804</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>281.4472682622336</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>128.9042670378545</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>37.64843842388981</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.753544064367284</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>78.73127309745051</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>75.20250987094951</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>97.36600688264706</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>185.2632112119489</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>12.78357947372727</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>152.9662577680471</v>
@@ -2693,10 +2693,10 @@
         <v>195.2992474636072</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>21.61803577907896</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.46147867229993</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>146.019094310482</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>329.2322694497789</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.9693528822883</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>114.2788013768303</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>48.19298769507705</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.2143642482139</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T31" t="n">
-        <v>232.9032904027983</v>
+        <v>209.2057289552413</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>199.5756979698838</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>215.9765152878634</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.4235511641288</v>
@@ -3113,13 +3113,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>0.410366858644208</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>22.06468129387046</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3195,16 +3195,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>101.5222039608943</v>
+        <v>79.23162053138266</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>41.07820241816634</v>
+        <v>281.2525488815619</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>22.06468129387046</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.6805149669376</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>79.23162053138266</v>
       </c>
       <c r="G37" t="n">
-        <v>40.01604577998965</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>139.2678442953623</v>
       </c>
       <c r="I37" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>53.53305482788545</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>150.592682405224</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>12.78357947372729</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>58.58122432777904</v>
+        <v>48.19298769507705</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>48.89559373465842</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>318.435506303792</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>80.96518956466782</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>5.789517020581325</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3887,7 +3887,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>48.93081402024408</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>150.2277137817902</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>33.29661725718388</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>58.42333822888952</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>21.05267143061972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.24615239222211</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -4070,10 +4070,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>84.02639579958381</v>
       </c>
     </row>
     <row r="46">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>49.11702611284426</v>
       </c>
       <c r="C46" t="n">
-        <v>33.29661725718388</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.242673551200408</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="C2" t="n">
-        <v>3.242673551200408</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="D2" t="n">
-        <v>3.242673551200408</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="E2" t="n">
-        <v>3.242673551200408</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="F2" t="n">
-        <v>3.242673551200408</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="G2" t="n">
         <v>2.380246616269969</v>
@@ -4351,31 +4351,31 @@
         <v>107.9106802520795</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.40353022809319</v>
+        <v>107.9106802520795</v>
       </c>
       <c r="R2" t="n">
-        <v>93.40353022809319</v>
+        <v>107.9106802520795</v>
       </c>
       <c r="S2" t="n">
-        <v>93.40353022809319</v>
+        <v>107.9106802520795</v>
       </c>
       <c r="T2" t="n">
-        <v>63.3499113357956</v>
+        <v>107.9106802520795</v>
       </c>
       <c r="U2" t="n">
-        <v>33.296292443498</v>
+        <v>107.9106802520795</v>
       </c>
       <c r="V2" t="n">
-        <v>33.296292443498</v>
+        <v>77.85706135978191</v>
       </c>
       <c r="W2" t="n">
-        <v>3.242673551200408</v>
+        <v>77.85706135978191</v>
       </c>
       <c r="X2" t="n">
-        <v>3.242673551200408</v>
+        <v>47.80344246748432</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.242673551200408</v>
+        <v>17.74982357518672</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.92878422929004</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="C3" t="n">
-        <v>18.48814589086796</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="D3" t="n">
-        <v>18.48814589086796</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="E3" t="n">
-        <v>18.48814589086796</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="F3" t="n">
-        <v>18.48814589086796</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="G3" t="n">
-        <v>18.48814589086796</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="H3" t="n">
-        <v>18.48814589086796</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="I3" t="n">
-        <v>18.48814589086796</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="J3" t="n">
         <v>2.380246616269969</v>
       </c>
       <c r="K3" t="n">
-        <v>7.049851354353725</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="L3" t="n">
-        <v>13.48396889185922</v>
+        <v>27.41973561947795</v>
       </c>
       <c r="M3" t="n">
         <v>42.93952076820009</v>
@@ -4436,25 +4436,25 @@
         <v>110.0896409061828</v>
       </c>
       <c r="S3" t="n">
-        <v>110.0896409061828</v>
+        <v>92.54110329316275</v>
       </c>
       <c r="T3" t="n">
-        <v>110.0896409061828</v>
+        <v>92.54110329316275</v>
       </c>
       <c r="U3" t="n">
-        <v>80.03602201388523</v>
+        <v>62.48748440086516</v>
       </c>
       <c r="V3" t="n">
-        <v>80.03602201388523</v>
+        <v>32.43386550856756</v>
       </c>
       <c r="W3" t="n">
-        <v>80.03602201388523</v>
+        <v>32.43386550856756</v>
       </c>
       <c r="X3" t="n">
-        <v>49.98240312158764</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.92878422929004</v>
+        <v>2.380246616269969</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="C5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="D5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="E5" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="F5" t="n">
-        <v>3.002344356966911</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="G5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K5" t="n">
-        <v>8.579347327526904</v>
+        <v>8.579347327526918</v>
       </c>
       <c r="L5" t="n">
-        <v>30.44332621730851</v>
+        <v>30.44332621730859</v>
       </c>
       <c r="M5" t="n">
-        <v>67.59733763477406</v>
+        <v>67.59733763477419</v>
       </c>
       <c r="N5" t="n">
-        <v>104.7513490522396</v>
+        <v>104.7513490522398</v>
       </c>
       <c r="O5" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505106</v>
       </c>
       <c r="P5" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Q5" t="n">
-        <v>140.4407569093451</v>
+        <v>140.4407569093455</v>
       </c>
       <c r="R5" t="n">
-        <v>102.5323685638033</v>
+        <v>140.4407569093455</v>
       </c>
       <c r="S5" t="n">
-        <v>64.62398021826149</v>
+        <v>140.4407569093455</v>
       </c>
       <c r="T5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="U5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="V5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="W5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="X5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935926</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119.516311576276</v>
+        <v>77.61222469757593</v>
       </c>
       <c r="C6" t="n">
-        <v>119.516311576276</v>
+        <v>77.61222469757593</v>
       </c>
       <c r="D6" t="n">
-        <v>119.516311576276</v>
+        <v>77.61222469757593</v>
       </c>
       <c r="E6" t="n">
-        <v>119.516311576276</v>
+        <v>77.61222469757593</v>
       </c>
       <c r="F6" t="n">
-        <v>119.516311576276</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="G6" t="n">
-        <v>81.60792323073417</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="H6" t="n">
-        <v>43.69953488519236</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.84896719680826</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J6" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K6" t="n">
-        <v>3.002344356966911</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L6" t="n">
-        <v>33.13522710018535</v>
+        <v>41.59280229228324</v>
       </c>
       <c r="M6" t="n">
-        <v>70.28923851765087</v>
+        <v>78.74681370974884</v>
       </c>
       <c r="N6" t="n">
-        <v>107.4432499351164</v>
+        <v>91.75600249516246</v>
       </c>
       <c r="O6" t="n">
-        <v>128.4760412668172</v>
+        <v>128.4760412668174</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.2497337976363</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="R6" t="n">
-        <v>144.2497337976363</v>
+        <v>115.5206130431178</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2497337976363</v>
+        <v>115.5206130431178</v>
       </c>
       <c r="T6" t="n">
-        <v>144.2497337976363</v>
+        <v>115.5206130431178</v>
       </c>
       <c r="U6" t="n">
-        <v>144.2497337976363</v>
+        <v>77.61222469757593</v>
       </c>
       <c r="V6" t="n">
-        <v>144.2497337976363</v>
+        <v>77.61222469757593</v>
       </c>
       <c r="W6" t="n">
-        <v>144.2497337976363</v>
+        <v>77.61222469757593</v>
       </c>
       <c r="X6" t="n">
-        <v>144.2497337976363</v>
+        <v>77.61222469757593</v>
       </c>
       <c r="Y6" t="n">
-        <v>119.516311576276</v>
+        <v>77.61222469757593</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="C7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="D7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="E7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="F7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="G7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="L7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="M7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="N7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="O7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="P7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="R7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="S7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="T7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="U7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="V7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="W7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="X7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191.5493228635227</v>
+        <v>52.20202758442419</v>
       </c>
       <c r="C8" t="n">
-        <v>191.5493228635227</v>
+        <v>52.20202758442419</v>
       </c>
       <c r="D8" t="n">
-        <v>191.5493228635227</v>
+        <v>52.20202758442419</v>
       </c>
       <c r="E8" t="n">
-        <v>191.5493228635227</v>
+        <v>52.20202758442419</v>
       </c>
       <c r="F8" t="n">
-        <v>155.665501774628</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="G8" t="n">
-        <v>107.2944606474758</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="H8" t="n">
-        <v>58.92341952032362</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="I8" t="n">
-        <v>10.55237839317141</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="J8" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="K8" t="n">
-        <v>14.5069272970909</v>
+        <v>14.50692729709181</v>
       </c>
       <c r="L8" t="n">
-        <v>42.69658949261873</v>
+        <v>42.69658949262055</v>
       </c>
       <c r="M8" t="n">
-        <v>86.88914241641388</v>
+        <v>86.88914241641669</v>
       </c>
       <c r="N8" t="n">
-        <v>133.665369441835</v>
+        <v>133.6653694418388</v>
       </c>
       <c r="O8" t="n">
-        <v>172.4340533990878</v>
+        <v>172.4340533990926</v>
       </c>
       <c r="P8" t="n">
-        <v>191.5493228635227</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="Q8" t="n">
-        <v>191.5493228635227</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="R8" t="n">
-        <v>191.5493228635227</v>
+        <v>153.1966186974705</v>
       </c>
       <c r="S8" t="n">
-        <v>191.5493228635227</v>
+        <v>153.1966186974705</v>
       </c>
       <c r="T8" t="n">
-        <v>191.5493228635227</v>
+        <v>104.8255775703169</v>
       </c>
       <c r="U8" t="n">
-        <v>191.5493228635227</v>
+        <v>104.8255775703169</v>
       </c>
       <c r="V8" t="n">
-        <v>191.5493228635227</v>
+        <v>100.5730687115778</v>
       </c>
       <c r="W8" t="n">
-        <v>191.5493228635227</v>
+        <v>100.5730687115778</v>
       </c>
       <c r="X8" t="n">
-        <v>191.5493228635227</v>
+        <v>52.20202758442419</v>
       </c>
       <c r="Y8" t="n">
-        <v>191.5493228635227</v>
+        <v>52.20202758442419</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.19824342951122</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="C9" t="n">
-        <v>3.830986457270455</v>
+        <v>143.1782817363747</v>
       </c>
       <c r="D9" t="n">
-        <v>3.830986457270455</v>
+        <v>94.80724060922107</v>
       </c>
       <c r="E9" t="n">
-        <v>3.830986457270455</v>
+        <v>94.80724060922107</v>
       </c>
       <c r="F9" t="n">
-        <v>3.830986457270455</v>
+        <v>52.20202758442419</v>
       </c>
       <c r="G9" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="H9" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="I9" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="J9" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="K9" t="n">
-        <v>15.75182428300328</v>
+        <v>15.75182428300388</v>
       </c>
       <c r="L9" t="n">
-        <v>50.5414910302987</v>
+        <v>50.54149103029995</v>
       </c>
       <c r="M9" t="n">
-        <v>97.94994843902057</v>
+        <v>97.94994843902322</v>
       </c>
       <c r="N9" t="n">
-        <v>123.9897715071343</v>
+        <v>145.3584058477465</v>
       </c>
       <c r="O9" t="n">
-        <v>165.812659725697</v>
+        <v>165.812659725702</v>
       </c>
       <c r="P9" t="n">
-        <v>191.5493228635227</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.5493228635227</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3113668109679</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="S9" t="n">
-        <v>109.9403256838156</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="T9" t="n">
-        <v>61.56928455666343</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="U9" t="n">
-        <v>13.19824342951122</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="V9" t="n">
-        <v>13.19824342951122</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="W9" t="n">
-        <v>13.19824342951122</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="X9" t="n">
-        <v>13.19824342951122</v>
+        <v>191.5493228635283</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.19824342951122</v>
+        <v>191.5493228635283</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="C10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="D10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="E10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="F10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="G10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="H10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="I10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="J10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="K10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="L10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="M10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="N10" t="n">
-        <v>6.016038360818066</v>
+        <v>6.016038360818564</v>
       </c>
       <c r="O10" t="n">
-        <v>6.016038360818066</v>
+        <v>6.016038360818564</v>
       </c>
       <c r="P10" t="n">
-        <v>6.016038360818066</v>
+        <v>6.016038360818564</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.016038360818066</v>
+        <v>6.016038360818564</v>
       </c>
       <c r="R10" t="n">
-        <v>6.016038360818066</v>
+        <v>6.016038360818564</v>
       </c>
       <c r="S10" t="n">
-        <v>6.016038360818066</v>
+        <v>6.016038360818564</v>
       </c>
       <c r="T10" t="n">
-        <v>6.016038360818066</v>
+        <v>6.016038360818564</v>
       </c>
       <c r="U10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="V10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="W10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="X10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.830986457270455</v>
+        <v>3.830986457270567</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>656.4519294175009</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="C11" t="n">
-        <v>434.6776289386154</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="D11" t="n">
-        <v>212.90332845973</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="E11" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="F11" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G11" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H11" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I11" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422718</v>
+        <v>61.76566646422719</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474254</v>
+        <v>148.5608200474256</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723314</v>
+        <v>271.1830965723313</v>
       </c>
       <c r="M11" t="n">
         <v>420.4501281543864</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547437</v>
+        <v>574.0010487547436</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809679</v>
+        <v>713.5940480809677</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598426</v>
+        <v>818.7605380598425</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963863</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963863</v>
+        <v>878.2262298963861</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963863</v>
+        <v>774.9388295947123</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963863</v>
+        <v>558.8783603256959</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963863</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="V11" t="n">
-        <v>878.2262298963863</v>
+        <v>461.1131255556985</v>
       </c>
       <c r="W11" t="n">
-        <v>878.2262298963863</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2262298963863</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="Y11" t="n">
-        <v>878.2262298963863</v>
+        <v>239.3388250768131</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.56452459792773</v>
+        <v>342.2084675269272</v>
       </c>
       <c r="C12" t="n">
-        <v>17.56452459792773</v>
+        <v>342.2084675269272</v>
       </c>
       <c r="D12" t="n">
-        <v>17.56452459792773</v>
+        <v>247.0172204230952</v>
       </c>
       <c r="E12" t="n">
-        <v>17.56452459792773</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F12" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H12" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I12" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J12" t="n">
         <v>36.26919386777749</v>
@@ -5153,19 +5153,19 @@
         <v>715.3219541700633</v>
       </c>
       <c r="U12" t="n">
-        <v>518.0205648090165</v>
+        <v>715.3219541700633</v>
       </c>
       <c r="V12" t="n">
-        <v>304.3090378020503</v>
+        <v>501.6104271630971</v>
       </c>
       <c r="W12" t="n">
-        <v>91.07586953837904</v>
+        <v>501.6104271630971</v>
       </c>
       <c r="X12" t="n">
-        <v>17.56452459792773</v>
+        <v>501.6104271630971</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.56452459792773</v>
+        <v>342.2084675269272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="C13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="D13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="E13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="F13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="K13" t="n">
         <v>37.55032788682529</v>
@@ -5232,19 +5232,19 @@
         <v>210.7171855514433</v>
       </c>
       <c r="U13" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="V13" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="W13" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="X13" t="n">
-        <v>210.7171855514433</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>493.3371361049932</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="C14" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="D14" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="E14" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="F14" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G14" t="n">
-        <v>49.7885351472224</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H14" t="n">
-        <v>49.7885351472224</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I14" t="n">
         <v>17.56452459792772</v>
@@ -5308,22 +5308,22 @@
         <v>774.9388295947123</v>
       </c>
       <c r="T14" t="n">
-        <v>774.9388295947123</v>
+        <v>558.8783603256959</v>
       </c>
       <c r="U14" t="n">
-        <v>715.1114365838786</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="V14" t="n">
-        <v>715.1114365838786</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="W14" t="n">
-        <v>715.1114365838786</v>
+        <v>337.1040598468105</v>
       </c>
       <c r="X14" t="n">
-        <v>715.1114365838786</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="Y14" t="n">
-        <v>715.1114365838786</v>
+        <v>239.3388250768131</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>254.9544983862073</v>
+        <v>110.9567484811625</v>
       </c>
       <c r="C15" t="n">
-        <v>254.9544983862073</v>
+        <v>110.9567484811625</v>
       </c>
       <c r="D15" t="n">
-        <v>138.0573406055997</v>
+        <v>110.9567484811625</v>
       </c>
       <c r="E15" t="n">
         <v>17.56452459792772</v>
@@ -5387,22 +5387,22 @@
         <v>621.2852813250471</v>
       </c>
       <c r="T15" t="n">
-        <v>621.2852813250471</v>
+        <v>464.9713081237153</v>
       </c>
       <c r="U15" t="n">
-        <v>423.9838919640002</v>
+        <v>464.9713081237153</v>
       </c>
       <c r="V15" t="n">
-        <v>254.9544983862073</v>
+        <v>251.2597811167491</v>
       </c>
       <c r="W15" t="n">
-        <v>254.9544983862073</v>
+        <v>251.2597811167491</v>
       </c>
       <c r="X15" t="n">
-        <v>254.9544983862073</v>
+        <v>251.2597811167491</v>
       </c>
       <c r="Y15" t="n">
-        <v>254.9544983862073</v>
+        <v>251.2597811167491</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.7171855514433</v>
+        <v>23.01747915739887</v>
       </c>
       <c r="C16" t="n">
-        <v>210.7171855514433</v>
+        <v>23.01747915739887</v>
       </c>
       <c r="D16" t="n">
-        <v>210.7171855514433</v>
+        <v>23.01747915739887</v>
       </c>
       <c r="E16" t="n">
-        <v>49.80637041976274</v>
+        <v>23.01747915739887</v>
       </c>
       <c r="F16" t="n">
-        <v>49.80637041976274</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G16" t="n">
-        <v>49.80637041976274</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H16" t="n">
-        <v>49.80637041976274</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I16" t="n">
         <v>17.56452459792772</v>
@@ -5500,13 +5500,13 @@
         <v>239.3388250768131</v>
       </c>
       <c r="E17" t="n">
-        <v>17.56452459792772</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="F17" t="n">
-        <v>17.56452459792772</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="G17" t="n">
-        <v>17.56452459792772</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="H17" t="n">
         <v>17.56452459792772</v>
@@ -5515,7 +5515,7 @@
         <v>17.56452459792772</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422718</v>
+        <v>61.76566646422714</v>
       </c>
       <c r="K17" t="n">
         <v>148.5608200474254</v>
@@ -5527,10 +5527,10 @@
         <v>420.4501281543864</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547436</v>
+        <v>574.0010487547435</v>
       </c>
       <c r="O17" t="n">
-        <v>713.5940480809677</v>
+        <v>713.5940480809678</v>
       </c>
       <c r="P17" t="n">
         <v>818.7605380598425</v>
@@ -5542,25 +5542,25 @@
         <v>878.2262298963861</v>
       </c>
       <c r="S17" t="n">
-        <v>878.2262298963861</v>
+        <v>774.9388295947123</v>
       </c>
       <c r="T17" t="n">
-        <v>662.1657606273698</v>
+        <v>774.9388295947123</v>
       </c>
       <c r="U17" t="n">
-        <v>662.1657606273698</v>
+        <v>774.9388295947123</v>
       </c>
       <c r="V17" t="n">
-        <v>440.3914601484844</v>
+        <v>553.1645291158269</v>
       </c>
       <c r="W17" t="n">
-        <v>440.3914601484844</v>
+        <v>331.3902286369415</v>
       </c>
       <c r="X17" t="n">
-        <v>440.3914601484844</v>
+        <v>331.3902286369415</v>
       </c>
       <c r="Y17" t="n">
-        <v>440.3914601484844</v>
+        <v>331.3902286369415</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.56452459792772</v>
+        <v>342.2084675269272</v>
       </c>
       <c r="C18" t="n">
-        <v>17.56452459792772</v>
+        <v>342.2084675269272</v>
       </c>
       <c r="D18" t="n">
-        <v>17.56452459792772</v>
+        <v>342.2084675269272</v>
       </c>
       <c r="E18" t="n">
-        <v>17.56452459792772</v>
+        <v>221.7156515192551</v>
       </c>
       <c r="F18" t="n">
-        <v>17.56452459792772</v>
+        <v>112.7557717017597</v>
       </c>
       <c r="G18" t="n">
         <v>17.56452459792772</v>
@@ -5627,19 +5627,19 @@
         <v>715.3219541700633</v>
       </c>
       <c r="U18" t="n">
-        <v>518.0205648090165</v>
+        <v>715.3219541700633</v>
       </c>
       <c r="V18" t="n">
-        <v>304.3090378020503</v>
+        <v>501.6104271630971</v>
       </c>
       <c r="W18" t="n">
-        <v>91.07586953837904</v>
+        <v>501.6104271630971</v>
       </c>
       <c r="X18" t="n">
-        <v>17.56452459792772</v>
+        <v>501.6104271630971</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.56452459792772</v>
+        <v>342.2084675269272</v>
       </c>
     </row>
     <row r="19">
@@ -5706,16 +5706,16 @@
         <v>210.7171855514433</v>
       </c>
       <c r="U19" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="V19" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="W19" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="X19" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="Y19" t="n">
         <v>17.56452459792772</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>239.3388250768131</v>
+        <v>461.1131255556987</v>
       </c>
       <c r="C20" t="n">
-        <v>239.3388250768131</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="D20" t="n">
-        <v>239.3388250768131</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="E20" t="n">
-        <v>17.56452459792772</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="F20" t="n">
-        <v>17.56452459792772</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="G20" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H20" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I20" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422718</v>
+        <v>61.76566646422714</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474254</v>
+        <v>148.5608200474255</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723314</v>
+        <v>271.1830965723312</v>
       </c>
       <c r="M20" t="n">
-        <v>420.4501281543863</v>
+        <v>420.4501281543865</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547435</v>
+        <v>574.0010487547437</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809677</v>
+        <v>713.5940480809678</v>
       </c>
       <c r="P20" t="n">
-        <v>818.7605380598425</v>
+        <v>818.7605380598426</v>
       </c>
       <c r="Q20" t="n">
-        <v>878.2262298963861</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="R20" t="n">
-        <v>878.2262298963861</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="S20" t="n">
-        <v>878.2262298963861</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="T20" t="n">
-        <v>878.2262298963861</v>
+        <v>662.1657606273702</v>
       </c>
       <c r="U20" t="n">
-        <v>878.2262298963861</v>
+        <v>662.1657606273702</v>
       </c>
       <c r="V20" t="n">
-        <v>878.2262298963861</v>
+        <v>662.1657606273702</v>
       </c>
       <c r="W20" t="n">
-        <v>682.8874260345839</v>
+        <v>662.1657606273702</v>
       </c>
       <c r="X20" t="n">
-        <v>682.8874260345839</v>
+        <v>662.1657606273702</v>
       </c>
       <c r="Y20" t="n">
-        <v>461.1131255556985</v>
+        <v>461.1131255556987</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.56452459792772</v>
+        <v>260.5194756664774</v>
       </c>
       <c r="C21" t="n">
-        <v>17.56452459792772</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="D21" t="n">
-        <v>17.56452459792772</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="E21" t="n">
-        <v>17.56452459792772</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J21" t="n">
-        <v>36.26919386777749</v>
+        <v>36.2691938677775</v>
       </c>
       <c r="K21" t="n">
         <v>99.89115689943327</v>
@@ -5861,22 +5861,22 @@
         <v>621.2852813250471</v>
       </c>
       <c r="T21" t="n">
-        <v>621.2852813250471</v>
+        <v>464.9713081237153</v>
       </c>
       <c r="U21" t="n">
-        <v>567.0039931021711</v>
+        <v>419.9214353026474</v>
       </c>
       <c r="V21" t="n">
-        <v>353.2924660952049</v>
+        <v>419.9214353026474</v>
       </c>
       <c r="W21" t="n">
-        <v>353.2924660952049</v>
+        <v>419.9214353026474</v>
       </c>
       <c r="X21" t="n">
-        <v>176.9664842340977</v>
+        <v>419.9214353026474</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.56452459792772</v>
+        <v>260.5194756664774</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.2262298963861</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="C22" t="n">
-        <v>844.5682136199605</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D22" t="n">
-        <v>685.0735689428705</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E22" t="n">
-        <v>685.0735689428705</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F22" t="n">
-        <v>685.0735689428705</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G22" t="n">
-        <v>685.0735689428705</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H22" t="n">
-        <v>685.0735689428705</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I22" t="n">
-        <v>685.0735689428705</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J22" t="n">
-        <v>685.0735689428705</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="K22" t="n">
-        <v>705.0593722317681</v>
+        <v>37.55032788682529</v>
       </c>
       <c r="L22" t="n">
-        <v>742.7461676397102</v>
+        <v>75.23712329476737</v>
       </c>
       <c r="M22" t="n">
-        <v>783.8012139395001</v>
+        <v>116.2921695945573</v>
       </c>
       <c r="N22" t="n">
-        <v>827.0623609927304</v>
+        <v>159.5533166477876</v>
       </c>
       <c r="O22" t="n">
-        <v>858.7942313043065</v>
+        <v>191.2851869593637</v>
       </c>
       <c r="P22" t="n">
-        <v>878.2262298963861</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="Q22" t="n">
-        <v>878.2262298963861</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="R22" t="n">
-        <v>878.2262298963861</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="S22" t="n">
-        <v>878.2262298963861</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="T22" t="n">
-        <v>878.2262298963861</v>
+        <v>210.7171855514433</v>
       </c>
       <c r="U22" t="n">
-        <v>878.2262298963861</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="V22" t="n">
-        <v>878.2262298963861</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="W22" t="n">
-        <v>878.2262298963861</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="X22" t="n">
-        <v>878.2262298963861</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.2262298963861</v>
+        <v>17.56452459792773</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>740.0538682403713</v>
+        <v>726.4981046040539</v>
       </c>
       <c r="C23" t="n">
-        <v>740.0538682403713</v>
+        <v>442.2079346422017</v>
       </c>
       <c r="D23" t="n">
-        <v>740.0538682403713</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E23" t="n">
-        <v>325.7136527572681</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F23" t="n">
-        <v>325.7136527572681</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G23" t="n">
-        <v>325.7136527572681</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H23" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J23" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L23" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N23" t="n">
         <v>1187.216805582613</v>
@@ -6010,7 +6010,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q23" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R23" t="n">
         <v>1887.20023676311</v>
@@ -6019,22 +6019,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T23" t="n">
-        <v>1756.993906421842</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U23" t="n">
-        <v>1500.11260256838</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="V23" t="n">
-        <v>1150.275047904861</v>
+        <v>1537.362682099591</v>
       </c>
       <c r="W23" t="n">
-        <v>1150.275047904861</v>
+        <v>1537.362682099591</v>
       </c>
       <c r="X23" t="n">
-        <v>1150.275047904861</v>
+        <v>1136.719284268543</v>
       </c>
       <c r="Y23" t="n">
-        <v>1150.275047904861</v>
+        <v>1136.719284268543</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>326.6649594476208</v>
+        <v>385.8651149717113</v>
       </c>
       <c r="C24" t="n">
-        <v>192.6698881965665</v>
+        <v>385.8651149717113</v>
       </c>
       <c r="D24" t="n">
-        <v>75.77273041595897</v>
+        <v>268.9679571911037</v>
       </c>
       <c r="E24" t="n">
-        <v>37.74400473526219</v>
+        <v>148.4751411834316</v>
       </c>
       <c r="F24" t="n">
-        <v>37.74400473526219</v>
+        <v>39.51526136593623</v>
       </c>
       <c r="G24" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H24" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J24" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K24" t="n">
         <v>232.7978194276822</v>
@@ -6098,22 +6098,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T24" t="n">
-        <v>1426.912595986079</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U24" t="n">
-        <v>1229.640628851122</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V24" t="n">
-        <v>1015.929101844156</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="W24" t="n">
-        <v>802.6959335804846</v>
+        <v>861.896089104575</v>
       </c>
       <c r="X24" t="n">
-        <v>626.3699517193775</v>
+        <v>685.5701072434679</v>
       </c>
       <c r="Y24" t="n">
-        <v>466.9679920832075</v>
+        <v>526.1681476072979</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340.5121325317413</v>
+        <v>117.2705432175354</v>
       </c>
       <c r="C25" t="n">
-        <v>340.5121325317413</v>
+        <v>117.2705432175354</v>
       </c>
       <c r="D25" t="n">
-        <v>340.5121325317413</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E25" t="n">
-        <v>340.5121325317413</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F25" t="n">
-        <v>340.5121325317413</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G25" t="n">
-        <v>264.550001348964</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H25" t="n">
-        <v>123.8754111516283</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I25" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J25" t="n">
         <v>56.4452522174457</v>
@@ -6183,16 +6183,16 @@
         <v>578.8559946720579</v>
       </c>
       <c r="V25" t="n">
-        <v>578.8559946720579</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="W25" t="n">
-        <v>578.8559946720579</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="X25" t="n">
-        <v>340.5121325317413</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="Y25" t="n">
-        <v>340.5121325317413</v>
+        <v>304.9702496115798</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1333.67686053944</v>
+        <v>442.2079346422017</v>
       </c>
       <c r="C26" t="n">
-        <v>1333.67686053944</v>
+        <v>442.2079346422017</v>
       </c>
       <c r="D26" t="n">
-        <v>1333.67686053944</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E26" t="n">
-        <v>919.3366450563365</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F26" t="n">
-        <v>732.2020882765901</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H26" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J26" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K26" t="n">
         <v>342.4771847987903</v>
@@ -6235,43 +6235,43 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q26" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R26" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S26" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T26" t="n">
-        <v>1590.558164392902</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U26" t="n">
-        <v>1333.67686053944</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V26" t="n">
-        <v>1333.67686053944</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="W26" t="n">
-        <v>1333.67686053944</v>
+        <v>941.2008343749128</v>
       </c>
       <c r="X26" t="n">
-        <v>1333.67686053944</v>
+        <v>540.5574365438654</v>
       </c>
       <c r="Y26" t="n">
-        <v>1333.67686053944</v>
+        <v>540.5574365438654</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>226.7268229214317</v>
+        <v>577.2618834585351</v>
       </c>
       <c r="C27" t="n">
-        <v>213.8141163823133</v>
+        <v>443.2668122074807</v>
       </c>
       <c r="D27" t="n">
-        <v>96.91695860170569</v>
+        <v>326.3696544268731</v>
       </c>
       <c r="E27" t="n">
-        <v>96.91695860170569</v>
+        <v>205.8768384192011</v>
       </c>
       <c r="F27" t="n">
-        <v>96.91695860170569</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="G27" t="n">
-        <v>96.91695860170569</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H27" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J27" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K27" t="n">
         <v>232.7978194276822</v>
@@ -6332,25 +6332,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S27" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T27" t="n">
-        <v>1186.671426824303</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U27" t="n">
-        <v>989.3994596893464</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V27" t="n">
-        <v>775.6879326823802</v>
+        <v>1053.292857591399</v>
       </c>
       <c r="W27" t="n">
-        <v>562.4547644187089</v>
+        <v>1053.292857591399</v>
       </c>
       <c r="X27" t="n">
-        <v>386.1287825576017</v>
+        <v>876.9668757302917</v>
       </c>
       <c r="Y27" t="n">
-        <v>226.7268229214317</v>
+        <v>717.5649160941217</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.44246804061567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C28" t="n">
-        <v>61.44246804061567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D28" t="n">
-        <v>61.44246804061567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E28" t="n">
-        <v>61.44246804061567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F28" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G28" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H28" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J28" t="n">
         <v>56.4452522174457</v>
@@ -6411,25 +6411,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S28" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="T28" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="U28" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="V28" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="W28" t="n">
-        <v>299.7863301809323</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="X28" t="n">
-        <v>61.44246804061567</v>
+        <v>262.4797033464975</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.44246804061567</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>447.8685954219921</v>
+        <v>1554.642388834041</v>
       </c>
       <c r="C29" t="n">
-        <v>37.7440047352622</v>
+        <v>1144.517798147311</v>
       </c>
       <c r="D29" t="n">
-        <v>37.7440047352622</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="E29" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="F29" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G29" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H29" t="n">
         <v>37.7440047352622</v>
@@ -6466,19 +6466,19 @@
         <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987906</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N29" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P29" t="n">
         <v>1687.808675484973</v>
@@ -6502,13 +6502,13 @@
         <v>1887.20023676311</v>
       </c>
       <c r="W29" t="n">
-        <v>1503.439935898279</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="X29" t="n">
-        <v>1259.026448138392</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="Y29" t="n">
-        <v>858.0897750864815</v>
+        <v>1887.20023676311</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86.42379028584509</v>
+        <v>438.2071289036777</v>
       </c>
       <c r="C30" t="n">
-        <v>86.42379028584509</v>
+        <v>438.2071289036777</v>
       </c>
       <c r="D30" t="n">
-        <v>86.42379028584509</v>
+        <v>321.3099711230701</v>
       </c>
       <c r="E30" t="n">
-        <v>86.42379028584509</v>
+        <v>205.8768384192011</v>
       </c>
       <c r="F30" t="n">
-        <v>86.42379028584509</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="G30" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H30" t="n">
         <v>37.7440047352622</v>
@@ -6572,22 +6572,22 @@
         <v>1341.182798307179</v>
       </c>
       <c r="T30" t="n">
-        <v>1186.671426824303</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="U30" t="n">
-        <v>989.3994596893464</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="V30" t="n">
-        <v>775.6879326823802</v>
+        <v>1127.471271300213</v>
       </c>
       <c r="W30" t="n">
-        <v>562.4547644187089</v>
+        <v>914.2381030365415</v>
       </c>
       <c r="X30" t="n">
-        <v>386.1287825576017</v>
+        <v>737.9121211754343</v>
       </c>
       <c r="Y30" t="n">
-        <v>226.7268229214317</v>
+        <v>578.5101615392643</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="C31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="D31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="E31" t="n">
-        <v>343.6001457803425</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F31" t="n">
-        <v>343.6001457803425</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G31" t="n">
-        <v>177.354473672852</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H31" t="n">
         <v>37.7440047352622</v>
@@ -6648,25 +6648,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S31" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="T31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="U31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="V31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="W31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="X31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="Y31" t="n">
-        <v>343.6001457803425</v>
+        <v>198.6548198669427</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1476.97905709862</v>
+        <v>1476.979057098621</v>
       </c>
       <c r="C32" t="n">
-        <v>1066.85446641189</v>
+        <v>1066.854466411891</v>
       </c>
       <c r="D32" t="n">
-        <v>865.2628523008966</v>
+        <v>662.3905365049513</v>
       </c>
       <c r="E32" t="n">
-        <v>865.2628523008966</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F32" t="n">
         <v>444.2324402545842</v>
       </c>
       <c r="G32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J32" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987906</v>
       </c>
       <c r="L32" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N32" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P32" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q32" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R32" t="n">
         <v>1887.20023676311</v>
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>172.153587964745</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C33" t="n">
-        <v>38.15851671369069</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D33" t="n">
-        <v>37.74400473526219</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E33" t="n">
-        <v>37.74400473526219</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J33" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K33" t="n">
         <v>232.7978194276822</v>
@@ -6809,22 +6809,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T33" t="n">
-        <v>1272.401224503203</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U33" t="n">
-        <v>1075.129257368246</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V33" t="n">
-        <v>861.4177303612801</v>
+        <v>1207.353071988627</v>
       </c>
       <c r="W33" t="n">
-        <v>648.1845620976088</v>
+        <v>994.1199037249553</v>
       </c>
       <c r="X33" t="n">
-        <v>471.8585802365016</v>
+        <v>817.7939218638481</v>
       </c>
       <c r="Y33" t="n">
-        <v>312.4566206003316</v>
+        <v>658.3919622276782</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>299.7863301809323</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C34" t="n">
-        <v>299.7863301809323</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D34" t="n">
-        <v>140.2916855038423</v>
+        <v>419.361349994968</v>
       </c>
       <c r="E34" t="n">
-        <v>140.2916855038423</v>
+        <v>258.4505348632874</v>
       </c>
       <c r="F34" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G34" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H34" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I34" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J34" t="n">
         <v>56.4452522174457</v>
@@ -6897,13 +6897,13 @@
         <v>578.8559946720579</v>
       </c>
       <c r="W34" t="n">
-        <v>299.7863301809323</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X34" t="n">
-        <v>299.7863301809323</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y34" t="n">
-        <v>299.7863301809323</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79.23713849098579</v>
+        <v>1136.426009047681</v>
       </c>
       <c r="C35" t="n">
-        <v>79.23713849098579</v>
+        <v>726.3014183609511</v>
       </c>
       <c r="D35" t="n">
-        <v>79.23713849098579</v>
+        <v>321.8374884540116</v>
       </c>
       <c r="E35" t="n">
         <v>37.7440047352622</v>
@@ -6940,19 +6940,19 @@
         <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987906</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655645</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N35" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
         <v>1687.808675484973</v>
@@ -6967,22 +6967,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T35" t="n">
-        <v>1674.798689903264</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U35" t="n">
-        <v>1674.798689903264</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="V35" t="n">
-        <v>1674.798689903264</v>
+        <v>1537.362682099591</v>
       </c>
       <c r="W35" t="n">
-        <v>1291.038389038433</v>
+        <v>1537.362682099591</v>
       </c>
       <c r="X35" t="n">
-        <v>890.3949912073851</v>
+        <v>1537.362682099591</v>
       </c>
       <c r="Y35" t="n">
-        <v>489.4583181554752</v>
+        <v>1136.426009047681</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>683.0535714964635</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C36" t="n">
-        <v>549.0585002454092</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D36" t="n">
-        <v>432.1613424648016</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E36" t="n">
-        <v>311.6685264571296</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F36" t="n">
-        <v>202.7086466396342</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G36" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H36" t="n">
         <v>37.7440047352622</v>
@@ -7046,22 +7046,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1272.401224503203</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U36" t="n">
-        <v>1075.129257368246</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V36" t="n">
-        <v>861.4177303612801</v>
+        <v>1207.353071988627</v>
       </c>
       <c r="W36" t="n">
-        <v>861.4177303612801</v>
+        <v>994.1199037249553</v>
       </c>
       <c r="X36" t="n">
-        <v>861.4177303612801</v>
+        <v>817.7939218638481</v>
       </c>
       <c r="Y36" t="n">
-        <v>823.3566041320502</v>
+        <v>658.3919622276782</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C37" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D37" t="n">
-        <v>304.9702496115798</v>
+        <v>419.361349994968</v>
       </c>
       <c r="E37" t="n">
-        <v>304.9702496115798</v>
+        <v>258.4505348632874</v>
       </c>
       <c r="F37" t="n">
-        <v>304.9702496115798</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G37" t="n">
-        <v>264.550001348964</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H37" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I37" t="n">
         <v>37.7440047352622</v>
@@ -7131,16 +7131,16 @@
         <v>578.8559946720579</v>
       </c>
       <c r="V37" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W37" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X37" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y37" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37.7440047352622</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="C38" t="n">
-        <v>37.7440047352622</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="D38" t="n">
-        <v>37.7440047352622</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E38" t="n">
-        <v>37.7440047352622</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F38" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G38" t="n">
         <v>37.7440047352622</v>
@@ -7174,16 +7174,16 @@
         <v>37.7440047352622</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K38" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L38" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
@@ -7210,16 +7210,16 @@
         <v>1333.67686053944</v>
       </c>
       <c r="V38" t="n">
-        <v>983.8393058759204</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="W38" t="n">
-        <v>600.0790050110891</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="X38" t="n">
-        <v>447.9651843997516</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="Y38" t="n">
-        <v>447.9651843997516</v>
+        <v>1333.67686053944</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>226.7268229214317</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="C39" t="n">
-        <v>226.7268229214317</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="D39" t="n">
-        <v>109.8296651408242</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="E39" t="n">
-        <v>96.91695860170569</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="F39" t="n">
-        <v>96.91695860170569</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="G39" t="n">
-        <v>96.91695860170569</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="H39" t="n">
         <v>37.7440047352622</v>
@@ -7356,19 +7356,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="R40" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S40" t="n">
-        <v>369.8768379572616</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T40" t="n">
-        <v>369.8768379572616</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U40" t="n">
-        <v>87.13349335612929</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V40" t="n">
-        <v>87.13349335612929</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W40" t="n">
         <v>37.7440047352622</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1565.548210193623</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="C41" t="n">
-        <v>1565.548210193623</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="D41" t="n">
-        <v>1161.084280286684</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="E41" t="n">
-        <v>746.7440648035805</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F41" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G41" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H41" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J41" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K41" t="n">
         <v>342.4771847987903</v>
@@ -7420,19 +7420,19 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O41" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P41" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q41" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R41" t="n">
         <v>1887.20023676311</v>
@@ -7441,22 +7441,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V41" t="n">
-        <v>1887.20023676311</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="W41" t="n">
-        <v>1565.548210193623</v>
+        <v>941.2008343749128</v>
       </c>
       <c r="X41" t="n">
-        <v>1565.548210193623</v>
+        <v>540.5574365438654</v>
       </c>
       <c r="Y41" t="n">
-        <v>1565.548210193623</v>
+        <v>458.7744167815746</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>523.9369265825777</v>
+        <v>336.7037178906885</v>
       </c>
       <c r="C42" t="n">
-        <v>389.9418553315234</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="D42" t="n">
-        <v>273.0446975509158</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="E42" t="n">
-        <v>152.5518815432438</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="F42" t="n">
-        <v>43.59200172574839</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G42" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H42" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J42" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K42" t="n">
         <v>232.7978194276822</v>
@@ -7517,25 +7517,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S42" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T42" t="n">
-        <v>1426.912595986079</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U42" t="n">
-        <v>1426.912595986079</v>
+        <v>989.3994596893464</v>
       </c>
       <c r="V42" t="n">
-        <v>1213.201068979113</v>
+        <v>775.6879326823802</v>
       </c>
       <c r="W42" t="n">
-        <v>999.9679007154415</v>
+        <v>562.4547644187089</v>
       </c>
       <c r="X42" t="n">
-        <v>823.6419188543343</v>
+        <v>386.1287825576017</v>
       </c>
       <c r="Y42" t="n">
-        <v>664.2399592181644</v>
+        <v>336.7037178906885</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.7440047352622</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="C43" t="n">
-        <v>37.7440047352622</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="D43" t="n">
-        <v>37.7440047352622</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="E43" t="n">
-        <v>37.7440047352622</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="F43" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G43" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H43" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I43" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J43" t="n">
         <v>56.4452522174457</v>
@@ -7602,19 +7602,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U43" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V43" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W43" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X43" t="n">
-        <v>262.4797033464975</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.7440047352622</v>
+        <v>354.1202960608226</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>858.5726557376875</v>
+        <v>1220.097753245158</v>
       </c>
       <c r="C44" t="n">
-        <v>858.5726557376875</v>
+        <v>1220.097753245158</v>
       </c>
       <c r="D44" t="n">
-        <v>858.5726557376875</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="E44" t="n">
-        <v>444.2324402545842</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F44" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G44" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H44" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I44" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J44" t="n">
-        <v>151.4749218512231</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K44" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L44" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M44" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N44" t="n">
         <v>1187.216805582613</v>
@@ -7669,7 +7669,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q44" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R44" t="n">
         <v>1887.20023676311</v>
@@ -7681,19 +7681,19 @@
         <v>1887.20023676311</v>
       </c>
       <c r="U44" t="n">
-        <v>1630.318932909648</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="V44" t="n">
-        <v>1280.481378246129</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="W44" t="n">
-        <v>1280.481378246129</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="X44" t="n">
-        <v>879.8379804150811</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="Y44" t="n">
-        <v>858.5726557376875</v>
+        <v>1630.318932909647</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>683.0535714964635</v>
+        <v>401.1917718114839</v>
       </c>
       <c r="C45" t="n">
-        <v>549.0585002454092</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="D45" t="n">
-        <v>432.1613424648016</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E45" t="n">
-        <v>311.6685264571296</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F45" t="n">
-        <v>202.7086466396342</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G45" t="n">
-        <v>96.91695860170569</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H45" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J45" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K45" t="n">
         <v>232.7978194276822</v>
@@ -7757,22 +7757,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T45" t="n">
-        <v>1272.401224503203</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U45" t="n">
-        <v>1075.129257368246</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V45" t="n">
-        <v>1075.129257368246</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W45" t="n">
-        <v>861.896089104575</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X45" t="n">
-        <v>861.896089104575</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y45" t="n">
-        <v>702.494129468405</v>
+        <v>541.4948044470706</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.37695145969036</v>
+        <v>529.2428369823162</v>
       </c>
       <c r="C46" t="n">
-        <v>37.7440047352622</v>
+        <v>358.1494645440327</v>
       </c>
       <c r="D46" t="n">
-        <v>37.7440047352622</v>
+        <v>198.6548198669427</v>
       </c>
       <c r="E46" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F46" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G46" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H46" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I46" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J46" t="n">
         <v>56.4452522174457</v>
@@ -7839,19 +7839,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U46" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V46" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W46" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X46" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.37695145969036</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>390.903086678517</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -22561,7 +22561,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>403.0864614785888</v>
+        <v>403.9402641441699</v>
       </c>
       <c r="H2" t="n">
         <v>300.6229883486327</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.36207852374645</v>
       </c>
       <c r="R2" t="n">
         <v>43.2944645795282</v>
@@ -22600,22 +22600,22 @@
         <v>117.9602172879473</v>
       </c>
       <c r="T2" t="n">
-        <v>187.1638597580033</v>
+        <v>216.9169424613779</v>
       </c>
       <c r="U2" t="n">
-        <v>224.6807451499563</v>
+        <v>254.4338278533309</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>316.5860964135095</v>
       </c>
       <c r="W2" t="n">
-        <v>350.1696151528085</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>366.8838811493624</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>367.1742236180162</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>131.2288885835059</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -22649,7 +22649,7 @@
         <v>27.3978788172526</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.94682028185201</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>35.72181107593123</v>
       </c>
       <c r="S3" t="n">
-        <v>99.94599751607818</v>
+        <v>82.5729452791883</v>
       </c>
       <c r="T3" t="n">
         <v>156.2372245900154</v>
@@ -22685,7 +22685,7 @@
         <v>165.5995537725607</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>181.8213290335219</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -22694,7 +22694,7 @@
         <v>144.8096393391215</v>
       </c>
       <c r="Y3" t="n">
-        <v>128.0548573364337</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -22792,22 +22792,22 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>372.6675088661859</v>
+        <v>372.6675088661858</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637628</v>
       </c>
       <c r="G5" t="n">
-        <v>403.8959782144399</v>
+        <v>366.3666737523534</v>
       </c>
       <c r="H5" t="n">
         <v>300.1694450707848</v>
       </c>
       <c r="I5" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J5" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.983284084036519</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S5" t="n">
-        <v>79.42174720213744</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T5" t="n">
-        <v>193.2469657633894</v>
+        <v>193.2469657633893</v>
       </c>
       <c r="U5" t="n">
         <v>254.4302849789525</v>
@@ -22874,19 +22874,19 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>71.53580394420402</v>
       </c>
       <c r="G6" t="n">
-        <v>67.99228462148544</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H6" t="n">
-        <v>28.66058246701633</v>
+        <v>28.66058246701623</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.58206201150024</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>13.70815661144291</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R6" t="n">
-        <v>34.25063875717579</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>99.50587214380288</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T6" t="n">
         <v>156.1417168646031</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3510775903192</v>
+        <v>157.8217731282327</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -22931,7 +22931,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>133.3218520406616</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -22965,28 +22965,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J7" t="n">
-        <v>27.80579301341919</v>
+        <v>27.80579301341917</v>
       </c>
       <c r="K7" t="n">
-        <v>13.42337108707596</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L7" t="n">
-        <v>4.943103517458709</v>
+        <v>4.943103517458681</v>
       </c>
       <c r="M7" t="n">
-        <v>3.878875624559498</v>
+        <v>3.878875624559463</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5722022158511422</v>
+        <v>0.5722022158511066</v>
       </c>
       <c r="O7" t="n">
-        <v>8.838421371704122</v>
+        <v>8.838421371704094</v>
       </c>
       <c r="P7" t="n">
-        <v>15.36087546843636</v>
+        <v>15.36087546843633</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090301</v>
       </c>
       <c r="R7" t="n">
         <v>69.39351739781233</v>
@@ -23032,19 +23032,19 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2951250478436</v>
+        <v>368.9327772099672</v>
       </c>
       <c r="G8" t="n">
-        <v>355.9681577937181</v>
+        <v>403.8554885095988</v>
       </c>
       <c r="H8" t="n">
-        <v>251.8674491652001</v>
+        <v>299.7547798810808</v>
       </c>
       <c r="I8" t="n">
-        <v>7.317433795353232</v>
+        <v>55.2047645112337</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.654178016541465</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.207263715950091</v>
+        <v>5.207263715949466</v>
       </c>
       <c r="R8" t="n">
-        <v>37.96917712439757</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>116.028392515157</v>
+        <v>116.0283925151569</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5458371210427</v>
+        <v>168.6585064051606</v>
       </c>
       <c r="U8" t="n">
         <v>254.4270458025652</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>342.1291953467324</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>348.7496331368549</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23102,28 +23102,28 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>123.3815361360254</v>
+        <v>84.76778982266165</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>67.84085548691939</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>65.69112012477154</v>
       </c>
       <c r="G9" t="n">
-        <v>105.4999251815901</v>
+        <v>57.61259446570801</v>
       </c>
       <c r="H9" t="n">
-        <v>65.98065924417388</v>
+        <v>65.98065924417385</v>
       </c>
       <c r="I9" t="n">
-        <v>25.8361776669538</v>
+        <v>25.8361776669537</v>
       </c>
       <c r="J9" t="n">
-        <v>11.6613929597391</v>
+        <v>11.66139295973881</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.043431125657001</v>
+        <v>3.04343112565661</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>32.90557649202916</v>
       </c>
       <c r="S9" t="n">
-        <v>51.21614395032292</v>
+        <v>99.10347466620355</v>
       </c>
       <c r="T9" t="n">
-        <v>108.1670654209978</v>
+        <v>156.0543961368785</v>
       </c>
       <c r="U9" t="n">
-        <v>147.4623216177292</v>
+        <v>195.3496523336099</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23199,43 +23199,43 @@
         <v>144.9786334357326</v>
       </c>
       <c r="I10" t="n">
-        <v>104.5863402830256</v>
+        <v>104.5863402830255</v>
       </c>
       <c r="J10" t="n">
-        <v>26.52171927417099</v>
+        <v>26.52171927417081</v>
       </c>
       <c r="K10" t="n">
-        <v>11.31324348162501</v>
+        <v>11.31324348162471</v>
       </c>
       <c r="L10" t="n">
-        <v>2.242866673988857</v>
+        <v>2.242866673988473</v>
       </c>
       <c r="M10" t="n">
-        <v>1.031854474262886</v>
+        <v>1.031854474262481</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6.271264563445015</v>
+        <v>6.271264563444653</v>
       </c>
       <c r="P10" t="n">
-        <v>13.1642293289278</v>
+        <v>13.16422932892749</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.85468463493991</v>
+        <v>31.8546846349397</v>
       </c>
       <c r="R10" t="n">
-        <v>68.57687489886395</v>
+        <v>68.57687489886384</v>
       </c>
       <c r="S10" t="n">
-        <v>178.3872815272726</v>
+        <v>178.3872815272725</v>
       </c>
       <c r="T10" t="n">
         <v>235.6477391716879</v>
       </c>
       <c r="U10" t="n">
-        <v>277.7877452868074</v>
+        <v>277.787745286807</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>186.562410393748</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>186.466787305766</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>180.8627331337735</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>216.811397505088</v>
+        <v>190.6402558541757</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3786899365281</v>
+        <v>157.5911075142307</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820866</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23342,13 +23342,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>21.4888515700078</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>105.1765168157536</v>
@@ -23393,19 +23393,19 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>101.7864905514493</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23472,7 +23472,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9361575053235</v>
+        <v>88.71502316134314</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23484,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.26720728114253</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>186.562410393748</v>
       </c>
       <c r="C14" t="n">
-        <v>186.466787305766</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>183.6944827100387</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H14" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>31.90177044380173</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>195.1495708558028</v>
+        <v>34.8221324624316</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23560,7 +23560,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>299.8493814304396</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>26.82958620319289</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
@@ -23627,13 +23627,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V15" t="n">
-        <v>44.23531209488152</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23661,10 +23661,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>157.5863896166382</v>
       </c>
       <c r="G16" t="n">
         <v>164.9543984734636</v>
@@ -23673,7 +23673,7 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
-        <v>64.51315273362965</v>
+        <v>96.43258009724632</v>
       </c>
       <c r="J16" t="n">
         <v>7.352495282391843</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>207.07685914689</v>
+        <v>314.9880783433175</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,7 +23740,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>190.6402558541757</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23749,7 +23749,7 @@
         <v>403.2510401841353</v>
       </c>
       <c r="H17" t="n">
-        <v>293.5644734679276</v>
+        <v>74.00791599383106</v>
       </c>
       <c r="I17" t="n">
         <v>31.90177044380173</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U17" t="n">
         <v>254.3786899365281</v>
@@ -23794,7 +23794,7 @@
         <v>126.7826216427876</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820866</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23819,13 +23819,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1765168157536</v>
+        <v>10.93718218295996</v>
       </c>
       <c r="H18" t="n">
         <v>62.85721528991137</v>
@@ -23867,19 +23867,19 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>101.7864905514493</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23946,7 +23946,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U19" t="n">
-        <v>88.71502316134314</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>31.26720728114253</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.562410393748</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>186.4667873057659</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>190.6402558541757</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100386</v>
       </c>
       <c r="H20" t="n">
         <v>293.5644734679276</v>
@@ -24022,7 +24022,7 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3786899365281</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>186.5372820329989</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.3707488472943</v>
+        <v>197.885197600436</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -24059,7 +24059,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>105.1765168157536</v>
@@ -24101,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>141.5899001267892</v>
+        <v>150.7290013745792</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>136.0610026002392</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24183,7 +24183,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9361575053235</v>
+        <v>88.71502316134317</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>124.5760765176289</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24223,7 +24223,7 @@
         <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
-        <v>81.37326435339304</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24287,19 +24287,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>81.63944942370549</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7337711575492</v>
+        <v>102.9802270931819</v>
       </c>
       <c r="H24" t="n">
         <v>58.58122432777904</v>
@@ -24338,13 +24338,13 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>79.16842513286856</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>89.38070551546605</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>308.7529609851975</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>231.5568967139004</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>119.8715410648165</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>104.7337711575492</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>189.9563759578176</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>139.5233359582147</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>164.5832153864156</v>
@@ -24651,7 +24651,7 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S28" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.9032904027983</v>
@@ -24663,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>89.94132920843143</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>76.88669841806569</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24697,7 +24697,7 @@
         <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>154.6676109704487</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24764,19 +24764,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>5.00908647076497</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>56.54078346247216</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>1.053480047148412</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I31" t="n">
         <v>85.27009235220248</v>
@@ -24888,10 +24888,10 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S31" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>23.69756144755706</v>
       </c>
       <c r="U31" t="n">
         <v>279.9159111551209</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>200.8435926379862</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>194.2202980404088</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.3178193441573</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>104.7337711575492</v>
@@ -25049,13 +25049,13 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>189.5097304430261</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>61.46261066962035</v>
+        <v>83.75319409913199</v>
       </c>
       <c r="G34" t="n">
         <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>85.27009235220248</v>
@@ -25137,7 +25137,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>369.1186109101059</v>
+        <v>128.9442644467103</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25207,19 +25207,19 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U35" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>189.5097304430261</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>120.1274250728707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,22 +25317,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>83.75319409913199</v>
       </c>
       <c r="G37" t="n">
-        <v>124.5671696064259</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>346.8862357799846</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>285.0899515417858</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>246.044281447513</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>106.504308373868</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
@@ -25487,7 +25487,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>10.38823663270199</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T40" t="n">
         <v>232.9032904027983</v>
@@ -25611,7 +25611,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>227.383374111556</v>
+        <v>20.49400896390753</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25633,10 +25633,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>61.4871915523911</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>315.962116756723</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>98.94425413696788</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>108.8771260195642</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>35.59499554831379</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25797,7 +25797,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5832153864156</v>
@@ -25842,7 +25842,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25851,7 +25851,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>202.6638062617296</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>341.9959523789805</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.8746348907711</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>119.6538499170086</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>73.78154424022446</v>
       </c>
     </row>
     <row r="46">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>136.7056832172597</v>
       </c>
       <c r="C46" t="n">
-        <v>136.0858214567168</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26079,7 +26079,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>135775.9789354579</v>
+        <v>135775.978935458</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>144078.1858849841</v>
+        <v>144078.1858849852</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>256251.8196686641</v>
+        <v>256251.8196686642</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>256251.8196686641</v>
+        <v>256251.8196686642</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>256251.8196686641</v>
+        <v>256251.8196686642</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407447.2137776625</v>
+        <v>407447.2137776626</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407447.2137776626</v>
+        <v>407447.2137776625</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407447.2137776625</v>
+        <v>407447.2137776627</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407447.2137776627</v>
+        <v>407447.2137776628</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>407447.2137776625</v>
+        <v>407447.2137776624</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>54721.25404904634</v>
       </c>
       <c r="C2" t="n">
-        <v>58189.70525805341</v>
+        <v>58189.70525805344</v>
       </c>
       <c r="D2" t="n">
-        <v>61747.79395070744</v>
+        <v>61747.79395070795</v>
       </c>
       <c r="E2" t="n">
         <v>109822.2084294275</v>
@@ -26334,7 +26334,7 @@
         <v>109822.2084294275</v>
       </c>
       <c r="I2" t="n">
-        <v>174620.2344761412</v>
+        <v>174620.2344761411</v>
       </c>
       <c r="J2" t="n">
         <v>174620.2344761412</v>
@@ -26346,7 +26346,7 @@
         <v>174620.2344761412</v>
       </c>
       <c r="M2" t="n">
-        <v>174620.2344761412</v>
+        <v>174620.2344761411</v>
       </c>
       <c r="N2" t="n">
         <v>174620.2344761412</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177936.7431521273</v>
+        <v>177936.7431521274</v>
       </c>
       <c r="C3" t="n">
-        <v>12543.57477385598</v>
+        <v>12543.57477385611</v>
       </c>
       <c r="D3" t="n">
-        <v>11843.15627806234</v>
+        <v>11843.15627806387</v>
       </c>
       <c r="E3" t="n">
-        <v>172053.5343950778</v>
+        <v>172053.5343950763</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>222021.1128848242</v>
       </c>
       <c r="J3" t="n">
-        <v>7784.715570841778</v>
+        <v>7784.715570841719</v>
       </c>
       <c r="K3" t="n">
         <v>2001.350641596171</v>
       </c>
       <c r="L3" t="n">
-        <v>2621.523222599026</v>
+        <v>2621.523222599385</v>
       </c>
       <c r="M3" t="n">
-        <v>42780.65798505447</v>
+        <v>42780.65798505408</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.22033770814079</v>
+        <v>20.2203377081408</v>
       </c>
       <c r="C4" t="n">
-        <v>27.19396146355786</v>
+        <v>27.19396146355793</v>
       </c>
       <c r="D4" t="n">
-        <v>34.77890649583017</v>
+        <v>34.77890649583118</v>
       </c>
       <c r="E4" t="n">
         <v>155.6503797250003</v>
@@ -26475,7 +26475,7 @@
         <v>39949.45546466367</v>
       </c>
       <c r="D5" t="n">
-        <v>40798.78900782148</v>
+        <v>40798.7890078216</v>
       </c>
       <c r="E5" t="n">
         <v>20886.45015162829</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162472.2190970795</v>
+        <v>-163840.4656271705</v>
       </c>
       <c r="C6" t="n">
-        <v>5669.481058070203</v>
+        <v>4317.750962307699</v>
       </c>
       <c r="D6" t="n">
-        <v>9071.069758327787</v>
+        <v>7736.282942053065</v>
       </c>
       <c r="E6" t="n">
-        <v>-83273.4264970036</v>
+        <v>-84379.28753004363</v>
       </c>
       <c r="F6" t="n">
-        <v>88780.10789807423</v>
+        <v>87674.24686503263</v>
       </c>
       <c r="G6" t="n">
-        <v>88780.10789807423</v>
+        <v>87674.24686503263</v>
       </c>
       <c r="H6" t="n">
-        <v>88780.10789807425</v>
+        <v>87674.24686503266</v>
       </c>
       <c r="I6" t="n">
-        <v>-88442.97553595155</v>
+        <v>-89240.27454019929</v>
       </c>
       <c r="J6" t="n">
-        <v>125793.4217780309</v>
+        <v>124996.1227737832</v>
       </c>
       <c r="K6" t="n">
-        <v>131576.7867072765</v>
+        <v>130779.4877030288</v>
       </c>
       <c r="L6" t="n">
-        <v>130956.6141262736</v>
+        <v>130159.3151220255</v>
       </c>
       <c r="M6" t="n">
-        <v>90797.47936381819</v>
+        <v>90000.18035957078</v>
       </c>
       <c r="N6" t="n">
-        <v>133578.1373488726</v>
+        <v>132780.8383446249</v>
       </c>
       <c r="O6" t="n">
-        <v>133578.1373488727</v>
+        <v>132780.8383446249</v>
       </c>
       <c r="P6" t="n">
-        <v>133578.1373488726</v>
+        <v>132780.8383446249</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>174.3083590791369</v>
       </c>
       <c r="C3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="D3" t="n">
-        <v>195.396298178713</v>
+        <v>195.3962981787144</v>
       </c>
       <c r="E3" t="n">
         <v>345.7528191377625</v>
@@ -26792,13 +26792,13 @@
         <v>29.75308270337462</v>
       </c>
       <c r="C4" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="D4" t="n">
-        <v>47.88733071588069</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740966</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="F4" t="n">
         <v>219.5565574740965</v>
@@ -26807,19 +26807,19 @@
         <v>219.5565574740965</v>
       </c>
       <c r="H4" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="I4" t="n">
+        <v>471.8000591907775</v>
+      </c>
+      <c r="J4" t="n">
         <v>471.8000591907774</v>
-      </c>
-      <c r="J4" t="n">
-        <v>471.8000591907775</v>
       </c>
       <c r="K4" t="n">
         <v>471.8000591907775</v>
       </c>
       <c r="L4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="M4" t="n">
         <v>471.8000591907775</v>
@@ -26828,10 +26828,10 @@
         <v>471.8000591907775</v>
       </c>
       <c r="O4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="P4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>174.3083590791369</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0161250203501</v>
+        <v>11.01612502035022</v>
       </c>
       <c r="D3" t="n">
-        <v>10.07181407922596</v>
+        <v>10.07181407922727</v>
       </c>
       <c r="E3" t="n">
-        <v>150.3565209590495</v>
+        <v>150.3565209590481</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>29.75308270337462</v>
       </c>
       <c r="C4" t="n">
-        <v>7.776221758711763</v>
+        <v>7.776221758711849</v>
       </c>
       <c r="D4" t="n">
-        <v>10.35802625379431</v>
+        <v>10.35802625379561</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6692267582159</v>
+        <v>171.6692267582145</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>252.2435017166809</v>
       </c>
       <c r="J4" t="n">
-        <v>29.75308270337473</v>
+        <v>29.7530827033745</v>
       </c>
       <c r="K4" t="n">
         <v>7.776221758711927</v>
       </c>
       <c r="L4" t="n">
-        <v>10.35802625379419</v>
+        <v>10.35802625379561</v>
       </c>
       <c r="M4" t="n">
-        <v>171.669226758216</v>
+        <v>171.6692267582145</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>29.75308270337462</v>
       </c>
       <c r="K4" t="n">
-        <v>7.776221758711763</v>
+        <v>7.776221758711849</v>
       </c>
       <c r="L4" t="n">
-        <v>10.35802625379431</v>
+        <v>10.35802625379561</v>
       </c>
       <c r="M4" t="n">
-        <v>171.6692267582159</v>
+        <v>171.6692267582145</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31132,13 +31132,13 @@
         <v>35.422418518148</v>
       </c>
       <c r="K3" t="n">
-        <v>60.54255524732626</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>62.61363243459198</v>
+        <v>81.40693694540256</v>
       </c>
       <c r="M3" t="n">
-        <v>87.31736644179205</v>
+        <v>73.24083439369231</v>
       </c>
       <c r="N3" t="n">
         <v>82.94647609712462</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.7450230516562291</v>
       </c>
       <c r="H5" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774358</v>
       </c>
       <c r="I5" t="n">
-        <v>28.72250119897678</v>
+        <v>28.7225011989768</v>
       </c>
       <c r="J5" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K5" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711612</v>
       </c>
       <c r="L5" t="n">
-        <v>117.5702252242404</v>
+        <v>117.5702252242405</v>
       </c>
       <c r="M5" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N5" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O5" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P5" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954166</v>
       </c>
       <c r="R5" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860064</v>
       </c>
       <c r="S5" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T5" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.05960184413249831</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.3986224752328591</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538403</v>
       </c>
       <c r="I6" t="n">
-        <v>13.72450188849975</v>
+        <v>13.72450188849976</v>
       </c>
       <c r="J6" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L6" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702935</v>
       </c>
       <c r="M6" t="n">
-        <v>95.0935882005038</v>
+        <v>95.09358820050389</v>
       </c>
       <c r="N6" t="n">
-        <v>90.72269785583637</v>
+        <v>66.33398812649104</v>
       </c>
       <c r="O6" t="n">
-        <v>78.99672276939474</v>
+        <v>94.84242725419695</v>
       </c>
       <c r="P6" t="n">
-        <v>76.11940932757986</v>
+        <v>76.11940932757992</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R6" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S6" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031391</v>
       </c>
       <c r="T6" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426706</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384194</v>
       </c>
       <c r="H7" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I7" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J7" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953625</v>
       </c>
       <c r="K7" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L7" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644283</v>
       </c>
       <c r="M7" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422058</v>
       </c>
       <c r="N7" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256834</v>
       </c>
       <c r="O7" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P7" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146845</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R7" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S7" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T7" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7855127564973379</v>
+        <v>0.7855127564973436</v>
       </c>
       <c r="H8" t="n">
-        <v>8.044632517478364</v>
+        <v>8.044632517478423</v>
       </c>
       <c r="I8" t="n">
-        <v>30.28348054486365</v>
+        <v>30.28348054486387</v>
       </c>
       <c r="J8" t="n">
-        <v>66.669413316766</v>
+        <v>66.66941331676648</v>
       </c>
       <c r="K8" t="n">
-        <v>99.92016829929833</v>
+        <v>99.92016829929905</v>
       </c>
       <c r="L8" t="n">
-        <v>123.9598043209538</v>
+        <v>123.9598043209547</v>
       </c>
       <c r="M8" t="n">
-        <v>137.9291668043133</v>
+        <v>137.9291668043143</v>
       </c>
       <c r="N8" t="n">
-        <v>140.1610049237113</v>
+        <v>140.1610049237124</v>
       </c>
       <c r="O8" t="n">
-        <v>132.3500624512909</v>
+        <v>132.3500624512919</v>
       </c>
       <c r="P8" t="n">
-        <v>112.9577162752629</v>
+        <v>112.9577162752637</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.82654068320196</v>
+        <v>84.82654068320258</v>
       </c>
       <c r="R8" t="n">
-        <v>49.34296569032595</v>
+        <v>49.3429656903263</v>
       </c>
       <c r="S8" t="n">
-        <v>17.89987193868311</v>
+        <v>17.89987193868324</v>
       </c>
       <c r="T8" t="n">
-        <v>3.438582091567099</v>
+        <v>3.438582091567123</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06284102051978702</v>
+        <v>0.06284102051978747</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4202863772145902</v>
+        <v>0.4202863772145932</v>
       </c>
       <c r="H9" t="n">
-        <v>4.059081590467226</v>
+        <v>4.059081590467256</v>
       </c>
       <c r="I9" t="n">
-        <v>14.4703862330462</v>
+        <v>14.4703862330463</v>
       </c>
       <c r="J9" t="n">
-        <v>39.70784584026091</v>
+        <v>39.7078458402612</v>
       </c>
       <c r="K9" t="n">
-        <v>67.86703311363844</v>
+        <v>67.86703311363894</v>
       </c>
       <c r="L9" t="n">
-        <v>91.25560133336968</v>
+        <v>91.25560133337034</v>
       </c>
       <c r="M9" t="n">
-        <v>105.4516144542981</v>
+        <v>105.4516144542995</v>
       </c>
       <c r="N9" t="n">
-        <v>79.4962449777033</v>
+        <v>101.0807241096321</v>
       </c>
       <c r="O9" t="n">
-        <v>99.99682063491171</v>
+        <v>78.41234150298534</v>
       </c>
       <c r="P9" t="n">
-        <v>80.25626443495099</v>
+        <v>80.25626443495158</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.64918737918172</v>
+        <v>53.64918737918211</v>
       </c>
       <c r="R9" t="n">
-        <v>26.09462261337605</v>
+        <v>26.09462261337625</v>
       </c>
       <c r="S9" t="n">
-        <v>7.806635120630649</v>
+        <v>7.806635120630706</v>
       </c>
       <c r="T9" t="n">
-        <v>1.694049037983369</v>
+        <v>1.694049037983382</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02765041955359147</v>
+        <v>0.02765041955359167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3523539803222692</v>
+        <v>0.3523539803222718</v>
       </c>
       <c r="H10" t="n">
-        <v>3.132747206865269</v>
+        <v>3.132747206865291</v>
       </c>
       <c r="I10" t="n">
-        <v>10.59624515369152</v>
+        <v>10.59624515369159</v>
       </c>
       <c r="J10" t="n">
-        <v>24.91142640878443</v>
+        <v>24.91142640878461</v>
       </c>
       <c r="K10" t="n">
-        <v>40.93712607744182</v>
+        <v>40.93712607744212</v>
       </c>
       <c r="L10" t="n">
-        <v>52.38542721991265</v>
+        <v>52.38542721991303</v>
       </c>
       <c r="M10" t="n">
-        <v>55.23308802451716</v>
+        <v>55.23308802451756</v>
       </c>
       <c r="N10" t="n">
-        <v>53.91976864331602</v>
+        <v>53.91976864331641</v>
       </c>
       <c r="O10" t="n">
-        <v>49.80363350955131</v>
+        <v>49.80363350955167</v>
       </c>
       <c r="P10" t="n">
-        <v>42.61561231097698</v>
+        <v>42.61561231097729</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.50484102498566</v>
+        <v>29.50484102498587</v>
       </c>
       <c r="R10" t="n">
-        <v>15.84311624249039</v>
+        <v>15.84311624249051</v>
       </c>
       <c r="S10" t="n">
-        <v>6.140568911616271</v>
+        <v>6.140568911616316</v>
       </c>
       <c r="T10" t="n">
-        <v>1.505512461376968</v>
+        <v>1.505512461376979</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01921930801757834</v>
+        <v>0.01921930801757848</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>239.4596646988303</v>
       </c>
       <c r="R44" t="n">
-        <v>139.2918999677087</v>
+        <v>139.2918999677086</v>
       </c>
       <c r="S44" t="n">
         <v>50.53014419858177</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.716772462710864</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.499108623742925</v>
+        <v>25.29241313455351</v>
       </c>
       <c r="M3" t="n">
-        <v>29.75308270337462</v>
+        <v>15.67655065527489</v>
       </c>
       <c r="N3" t="n">
         <v>29.75308270337462</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898995</v>
       </c>
       <c r="L5" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139564</v>
       </c>
       <c r="M5" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208647</v>
       </c>
       <c r="N5" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="O5" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896042</v>
       </c>
       <c r="P5" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609623</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L6" t="n">
-        <v>30.43725529618024</v>
+        <v>30.4372552961803</v>
       </c>
       <c r="M6" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="N6" t="n">
-        <v>37.52930446208639</v>
+        <v>13.14059473274104</v>
       </c>
       <c r="O6" t="n">
-        <v>21.24524376939474</v>
+        <v>37.09094825419695</v>
       </c>
       <c r="P6" t="n">
-        <v>21.85977432477611</v>
+        <v>21.85977432477617</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10.7837786260812</v>
+        <v>10.78377862608193</v>
       </c>
       <c r="L8" t="n">
-        <v>28.47440625810894</v>
+        <v>28.47440625810984</v>
       </c>
       <c r="M8" t="n">
-        <v>44.63894234726784</v>
+        <v>44.63894234726884</v>
       </c>
       <c r="N8" t="n">
-        <v>47.24871416709202</v>
+        <v>47.24871416709304</v>
       </c>
       <c r="O8" t="n">
-        <v>39.16028682550781</v>
+        <v>39.16028682550878</v>
       </c>
       <c r="P8" t="n">
-        <v>19.30835299437874</v>
+        <v>19.30835299437956</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.04125032902305</v>
+        <v>12.04125032902355</v>
       </c>
       <c r="L9" t="n">
-        <v>35.14107752252063</v>
+        <v>35.14107752252129</v>
       </c>
       <c r="M9" t="n">
-        <v>47.88733071588069</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="N9" t="n">
-        <v>26.30285158395331</v>
+        <v>47.88733071588208</v>
       </c>
       <c r="O9" t="n">
-        <v>42.24534163491172</v>
+        <v>20.66086250298535</v>
       </c>
       <c r="P9" t="n">
-        <v>25.99662943214724</v>
+        <v>25.99662943214783</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.207123134896577</v>
+        <v>2.207123134896968</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>149.4258602996782</v>
       </c>
       <c r="R44" t="n">
-        <v>51.97975715298516</v>
+        <v>51.97975715298507</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
